--- a/input/IT/policy parameters.xlsx
+++ b/input/IT/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sonnewald/Documents/GitHub/SimPathsEU/input/IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BA3949-4876-4934-919D-2B43C2A13D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF72430-4B48-9E4A-BCB3-A7CA08D17C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="5" activeTab="8" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="21500" windowHeight="19460" firstSheet="8" activeTab="12" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -20,9 +20,13 @@
     <sheet name="students" sheetId="9" r:id="rId5"/>
     <sheet name="partnership" sheetId="4" r:id="rId6"/>
     <sheet name="employment_smales" sheetId="5" r:id="rId7"/>
-    <sheet name="employment_sfemales" sheetId="6" r:id="rId8"/>
-    <sheet name="employment_couples" sheetId="7" r:id="rId9"/>
-    <sheet name="raw data" sheetId="3" r:id="rId10"/>
+    <sheet name="employment_acmales" sheetId="11" r:id="rId8"/>
+    <sheet name="employment_sfemales" sheetId="6" r:id="rId9"/>
+    <sheet name="employment_acfemales" sheetId="12" r:id="rId10"/>
+    <sheet name="employment_malewdep" sheetId="13" r:id="rId11"/>
+    <sheet name="employment_femalewdep" sheetId="14" r:id="rId12"/>
+    <sheet name="employment_couples" sheetId="7" r:id="rId13"/>
+    <sheet name="raw data" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -548,9 +552,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -558,7 +562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -566,7 +570,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -574,7 +578,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -582,7 +586,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -590,7 +594,7 @@
         <v>8.8000000000000005E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -598,7 +602,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -606,7 +610,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -614,7 +618,7 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -622,7 +626,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -630,7 +634,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -638,7 +642,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -646,7 +650,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -654,7 +658,7 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -662,7 +666,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -676,6 +680,642 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D0CEB8-E54F-5A48-B926-E9E3B059E2BD}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.29414899999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.29414899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.27185799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.24763199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.22253700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.22546099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.24279899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.24468000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.27390300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.313029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.28016600000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.27554800000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.33879599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.32312099999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB987504-0F10-614F-9066-D2F7ED703381}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.84780199999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.84780199999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.80887100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.77573499999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.75251699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.75262899999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.75889499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.79421600000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.78493500000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.83127399999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.88571599999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.84921800000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.89088400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.78691500000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319F3CC7-6DA4-BF49-B291-7F9E7B67B39D}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.26522800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.26522800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.27356799999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.273926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.23652200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.25017800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.24973799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.26674399999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.27819100000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.29665599999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.30199500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.32094800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.34444900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.37901499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.62630600000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.62630600000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.61981799999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.62006399999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.62284799999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.63151900000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.62040200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.60854799999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.60442799999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.57280399999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.51707499999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.54910899999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.54368700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85A294-76F0-4023-B97D-1E7832E0E774}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
@@ -683,9 +1323,9 @@
       <selection activeCell="Y4" sqref="Y4:Y33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>34</v>
       </c>
@@ -696,7 +1336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -712,7 +1352,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -768,7 +1408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -846,7 +1486,7 @@
         <v>0.6613654059472992</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -925,7 +1565,7 @@
         <v>0.65666662435166534</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -1004,7 +1644,7 @@
         <v>0.65162882226991414</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -1083,7 +1723,7 @@
         <v>0.64942413470967808</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -1162,7 +1802,7 @@
         <v>0.64547705146902756</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -1241,7 +1881,7 @@
         <v>0.64460168570888343</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1320,7 +1960,7 @@
         <v>0.64477324955863657</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -1399,7 +2039,7 @@
         <v>0.64570195231543648</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -1478,7 +2118,7 @@
         <v>0.64737782355652385</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -1539,7 +2179,7 @@
         <v>0.64448143654604106</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2025</v>
       </c>
@@ -1600,7 +2240,7 @@
         <v>0.64389807700679014</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2026</v>
       </c>
@@ -1661,7 +2301,7 @@
         <v>0.63601678163112885</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2027</v>
       </c>
@@ -1722,7 +2362,7 @@
         <v>0.63885715724636716</v>
       </c>
     </row>
-    <row r="17" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W17">
         <f t="shared" si="11"/>
         <v>2007</v>
@@ -1735,7 +2375,7 @@
         <v>0.63970331929393809</v>
       </c>
     </row>
-    <row r="18" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W18">
         <f t="shared" si="11"/>
         <v>2008</v>
@@ -1748,7 +2388,7 @@
         <v>0.63745385907812036</v>
       </c>
     </row>
-    <row r="19" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W19">
         <f t="shared" si="11"/>
         <v>2009</v>
@@ -1761,7 +2401,7 @@
         <v>0.64638142900294271</v>
       </c>
     </row>
-    <row r="20" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W20">
         <f t="shared" si="11"/>
         <v>2010</v>
@@ -1774,7 +2414,7 @@
         <v>0.64291910814000863</v>
       </c>
     </row>
-    <row r="21" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W21">
         <f t="shared" si="11"/>
         <v>2011</v>
@@ -1787,7 +2427,7 @@
         <v>0.64183543445918845</v>
       </c>
     </row>
-    <row r="22" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W22">
         <f t="shared" si="11"/>
         <v>2012</v>
@@ -1800,7 +2440,7 @@
         <v>0.64457311813040019</v>
       </c>
     </row>
-    <row r="23" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W23">
         <f t="shared" si="11"/>
         <v>2013</v>
@@ -1813,7 +2453,7 @@
         <v>0.64501821298769013</v>
       </c>
     </row>
-    <row r="24" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W24">
         <f t="shared" si="11"/>
         <v>2014</v>
@@ -1826,7 +2466,7 @@
         <v>0.64303300577959377</v>
       </c>
     </row>
-    <row r="25" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W25">
         <f t="shared" si="11"/>
         <v>2015</v>
@@ -1839,7 +2479,7 @@
         <v>0.64350137796521267</v>
       </c>
     </row>
-    <row r="26" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W26">
         <f t="shared" si="11"/>
         <v>2016</v>
@@ -1852,7 +2492,7 @@
         <v>0.64443090532156433</v>
       </c>
     </row>
-    <row r="27" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W27">
         <f t="shared" si="11"/>
         <v>2017</v>
@@ -1865,7 +2505,7 @@
         <v>0.64369538754708922</v>
       </c>
     </row>
-    <row r="28" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W28">
         <f t="shared" si="11"/>
         <v>2018</v>
@@ -1878,7 +2518,7 @@
         <v>0.64389678969687036</v>
       </c>
     </row>
-    <row r="29" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W29">
         <f t="shared" si="11"/>
         <v>2019</v>
@@ -1891,7 +2531,7 @@
         <v>0.63975244582712099</v>
       </c>
     </row>
-    <row r="30" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W30">
         <f t="shared" si="11"/>
         <v>2020</v>
@@ -1904,7 +2544,7 @@
         <v>0.64948824720523413</v>
       </c>
     </row>
-    <row r="31" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W31">
         <f t="shared" si="11"/>
         <v>2021</v>
@@ -1917,7 +2557,7 @@
         <v>0.64443733677754689</v>
       </c>
     </row>
-    <row r="32" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W32">
         <v>2022</v>
       </c>
@@ -1926,7 +2566,7 @@
         <v>0.64425404141077236</v>
       </c>
     </row>
-    <row r="33" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W33">
         <v>2023</v>
       </c>
@@ -1948,13 +2588,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1962,7 +2602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1970,7 +2610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +2618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1986,7 +2626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1997,17 +2637,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -2026,9 +2666,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2057,7 +2697,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -2086,7 +2726,7 @@
         <v>23250</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -2115,7 +2755,7 @@
         <v>23088.381330685203</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -2145,7 +2785,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -2175,7 +2815,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -2205,7 +2845,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -2235,7 +2875,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -2265,7 +2905,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -2295,7 +2935,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -2325,7 +2965,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -2355,7 +2995,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -2385,7 +3025,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2026</v>
       </c>
@@ -2415,7 +3055,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2027</v>
       </c>
@@ -2445,10 +3085,10 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K16" s="1"/>
     </row>
   </sheetData>
@@ -2462,9 +3102,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2472,7 +3112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -2480,7 +3120,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -2488,7 +3128,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -2496,7 +3136,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -2504,7 +3144,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -2512,7 +3152,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -2520,7 +3160,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -2528,7 +3168,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -2536,7 +3176,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -2544,7 +3184,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -2552,7 +3192,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2560,7 +3200,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2568,7 +3208,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -2576,7 +3216,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -2597,9 +3237,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2607,7 +3247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -2615,7 +3255,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -2623,7 +3263,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -2631,7 +3271,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -2639,7 +3279,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -2647,7 +3287,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -2655,7 +3295,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -2663,7 +3303,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -2671,7 +3311,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -2679,7 +3319,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -2687,7 +3327,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2695,7 +3335,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2703,7 +3343,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -2711,7 +3351,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -2719,7 +3359,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -2727,7 +3367,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -2735,7 +3375,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -2743,7 +3383,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -2751,7 +3391,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -2759,7 +3399,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -2767,7 +3407,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -2775,7 +3415,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -2783,7 +3423,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -2791,7 +3431,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -2799,7 +3439,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -2807,7 +3447,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -2826,9 +3466,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2836,7 +3476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -2844,7 +3484,7 @@
         <v>0.60912390000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -2852,7 +3492,7 @@
         <v>0.60912390000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -2860,7 +3500,7 @@
         <v>0.60256900000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -2868,7 +3508,7 @@
         <v>0.59983640000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -2876,7 +3516,7 @@
         <v>0.59351379999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -2884,7 +3524,7 @@
         <v>0.6030934</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -2892,7 +3532,7 @@
         <v>0.57539309999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -2900,7 +3540,7 @@
         <v>0.55984630000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -2908,7 +3548,7 @@
         <v>0.55409109999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -2916,7 +3556,7 @@
         <v>0.54393720000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2924,7 +3564,7 @@
         <v>0.56667990000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2932,7 +3572,7 @@
         <v>0.55765529999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -2940,7 +3580,7 @@
         <v>0.53449530000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -2948,7 +3588,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -2956,7 +3596,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -2964,7 +3604,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -2972,7 +3612,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -2980,7 +3620,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -2988,7 +3628,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -2996,7 +3636,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -3004,7 +3644,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -3012,7 +3652,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -3020,7 +3660,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -3028,7 +3668,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -3036,7 +3676,7 @@
         <v>0.53523100000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -3058,9 +3698,9 @@
       <selection activeCell="B15" sqref="B15:B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3068,7 +3708,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -3076,7 +3716,7 @@
         <v>0.49449700000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -3084,7 +3724,7 @@
         <v>0.29497800000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -3092,7 +3732,7 @@
         <v>0.30293399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3100,7 +3740,7 @@
         <v>0.30091099999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3108,7 +3748,7 @@
         <v>0.29651699999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -3116,7 +3756,7 @@
         <v>0.30839499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -3124,7 +3764,7 @@
         <v>0.31296000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -3132,7 +3772,7 @@
         <v>0.33508500000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -3140,7 +3780,7 @@
         <v>0.36758299999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -3148,7 +3788,7 @@
         <v>0.38047399999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -3156,7 +3796,7 @@
         <v>0.32200600000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -3164,7 +3804,7 @@
         <v>0.319162</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -3172,7 +3812,7 @@
         <v>0.31869500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -3180,7 +3820,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -3188,7 +3828,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -3196,7 +3836,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -3204,7 +3844,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -3212,7 +3852,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -3220,7 +3860,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -3228,7 +3868,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -3236,7 +3876,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -3244,7 +3884,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -3252,7 +3892,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -3260,7 +3900,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -3268,7 +3908,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -3282,6 +3922,141 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2D3153-0348-7542-85E6-896A272799DF}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.349132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.349132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.349132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.30974299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.25676199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.26411699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.27359499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.27618300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.30072199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.32430500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.351267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.26828200000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.31243900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.36913600000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -3289,9 +4064,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3299,7 +4074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -3307,7 +4082,7 @@
         <v>0.29497800000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -3315,7 +4090,7 @@
         <v>0.30293399999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -3323,7 +4098,7 @@
         <v>0.30091099999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3331,7 +4106,7 @@
         <v>0.29651699999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3339,7 +4114,7 @@
         <v>0.30839499999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -3347,7 +4122,7 @@
         <v>0.31296000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -3355,7 +4130,7 @@
         <v>0.33508500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -3363,7 +4138,7 @@
         <v>0.36758299999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -3371,7 +4146,7 @@
         <v>0.38047399999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -3379,7 +4154,7 @@
         <v>0.32200600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -3387,7 +4162,7 @@
         <v>0.319162</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -3395,7 +4170,7 @@
         <v>0.31869500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -3403,7 +4178,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -3411,7 +4186,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -3419,7 +4194,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -3427,7 +4202,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -3435,7 +4210,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -3443,7 +4218,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -3451,7 +4226,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -3459,7 +4234,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -3467,7 +4242,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -3475,7 +4250,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -3483,7 +4258,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -3491,7 +4266,7 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -3499,243 +4274,12 @@
         <v>0.33229500000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
       <c r="B27">
         <v>0.33229500000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.62630600000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.62630600000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.61981799999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.62006399999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.62284799999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.63151900000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.62040200000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.60854799999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.60442799999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.57280399999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.51707499999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.54910899999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.54368700000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.55044300000000002</v>
       </c>
     </row>
   </sheetData>

--- a/input/IT/policy parameters.xlsx
+++ b/input/IT/policy parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sonnewald/Documents/GitHub/SimPathsEU/input/IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essexuniversity-my.sharepoint.com/personal/mv25449_essex_ac_uk/Documents/WorkCEMPA/SimPathsEU/input_IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF72430-4B48-9E4A-BCB3-A7CA08D17C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{9AF72430-4B48-9E4A-BCB3-A7CA08D17C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA904853-9C46-9B47-8C30-8C03A1B5828E}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="660" windowWidth="21500" windowHeight="19460" firstSheet="8" activeTab="12" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
@@ -20,12 +20,12 @@
     <sheet name="students" sheetId="9" r:id="rId5"/>
     <sheet name="partnership" sheetId="4" r:id="rId6"/>
     <sheet name="employment_smales" sheetId="5" r:id="rId7"/>
-    <sheet name="employment_acmales" sheetId="11" r:id="rId8"/>
-    <sheet name="employment_sfemales" sheetId="6" r:id="rId9"/>
-    <sheet name="employment_acfemales" sheetId="12" r:id="rId10"/>
-    <sheet name="employment_malewdep" sheetId="13" r:id="rId11"/>
-    <sheet name="employment_femalewdep" sheetId="14" r:id="rId12"/>
-    <sheet name="employment_couples" sheetId="7" r:id="rId13"/>
+    <sheet name="employment_sfemales" sheetId="6" r:id="rId8"/>
+    <sheet name="employment_couples" sheetId="7" r:id="rId9"/>
+    <sheet name="employment_malewdep" sheetId="15" r:id="rId10"/>
+    <sheet name="employment_femalewdep" sheetId="16" r:id="rId11"/>
+    <sheet name="employment_acmales" sheetId="17" r:id="rId12"/>
+    <sheet name="employment_acfemales" sheetId="18" r:id="rId13"/>
     <sheet name="raw data" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>empl_share</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,16 +233,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{692100C6-10E9-A74E-92F9-3C3E2AE42EDA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,133 +691,126 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D0CEB8-E54F-5A48-B926-E9E3B059E2BD}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913CAC88-DA29-B446-BA66-DD061E930F0F}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.29414899999999999</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.88794052600860596</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.29414899999999999</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.85640430450439453</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.27185799999999999</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.82676565647125244</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.24763199999999999</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.82236862182617188</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.22253700000000001</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.80132293701171875</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.22546099999999999</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.77768748998641968</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.24279899999999999</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.8748633861541748</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.24468000000000001</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.90104460716247559</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.27390300000000001</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.84850233793258667</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.313029</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.93292993307113647</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.28016600000000003</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.88890367746353149</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.27554800000000002</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.86532920598983765</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.33879599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.32312099999999999</v>
+      <c r="B14" s="3">
+        <v>0.86972618103027344</v>
       </c>
     </row>
   </sheetData>
@@ -815,133 +819,126 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB987504-0F10-614F-9066-D2F7ED703381}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF20F67C-8199-DF49-B370-FEC449D4A65C}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.84780199999999994</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.25252038240432739</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.84780199999999994</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.24328720569610596</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.80887100000000001</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2270265519618988</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.77573499999999995</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.21970100700855255</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.75251699999999999</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.2131209522485733</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.75262899999999999</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.2237350195646286</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.75889499999999999</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.23262958228588104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.79421600000000003</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.25565087795257568</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.78493500000000005</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.26219040155410767</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.83127399999999996</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.23543322086334229</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.88571599999999995</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.26493543386459351</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.84921800000000003</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.27603477239608765</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.89088400000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.78691500000000003</v>
+      <c r="B14" s="3">
+        <v>0.28345495462417603</v>
       </c>
     </row>
   </sheetData>
@@ -950,133 +947,126 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319F3CC7-6DA4-BF49-B291-7F9E7B67B39D}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7395B26-1CB7-2048-9F09-0ADB9D4B09D2}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.26522800000000002</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.34305822849273682</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.26522800000000002</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.30937826633453369</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.27356799999999998</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.28846493363380432</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.273926</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.28627783060073853</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.23652200000000001</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.30418160557746887</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.25017800000000001</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.31298160552978516</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.24973799999999999</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.30002990365028381</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.26674399999999998</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.32041221857070923</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.27819100000000002</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.39999315142631531</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.29665599999999998</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.34400022029876709</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.30199500000000001</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.36734047532081604</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.32094800000000001</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.32931581139564514</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.34444900000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.37901499999999999</v>
+      <c r="B14" s="3">
+        <v>0.32473981380462646</v>
       </c>
     </row>
   </sheetData>
@@ -1085,229 +1075,128 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61EE29D-32A6-E444-812E-2E49B8AFCE42}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.62630600000000003</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.22778747975826263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.62630600000000003</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.22201201319694519</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.61981799999999998</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.21300402283668518</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.62006399999999995</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.2013183981180191</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.62284799999999996</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.23291543126106262</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.63151900000000005</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.20759573578834534</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.62040200000000001</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.2188573032617569</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.60854799999999998</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.24295750260353088</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.60442799999999997</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.27645990252494812</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.57280399999999998</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.27932974696159363</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.51707499999999995</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.25465261936187744</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.54910899999999996</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.25471168756484985</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.54368700000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.55044300000000002</v>
+      <c r="B14" s="3">
+        <v>0.26065731048583984</v>
       </c>
     </row>
   </sheetData>
@@ -3922,141 +3811,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2D3153-0348-7542-85E6-896A272799DF}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.349132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.349132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.349132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.30974299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.25676199999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.26411699999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.27359499999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.27618300000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.30072199999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.32430500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.351267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.26828200000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.31243900000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.36913600000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -4285,4 +4039,235 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.62630600000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.62630600000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.61981799999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.62006399999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.62284799999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.63151900000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.62040200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.60854799999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.60442799999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.57280399999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.51707499999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.54910899999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.54368700000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.55044300000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/IT/policy parameters.xlsx
+++ b/input/IT/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essexuniversity-my.sharepoint.com/personal/mv25449_essex_ac_uk/Documents/WorkCEMPA/SimPathsEU/input_IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEUmerged/input/IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{9AF72430-4B48-9E4A-BCB3-A7CA08D17C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA904853-9C46-9B47-8C30-8C03A1B5828E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31B46D6-EF8A-0546-8A73-E2B0E427BD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="21500" windowHeight="19460" firstSheet="8" activeTab="12" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="25420" yWindow="3100" windowWidth="21500" windowHeight="19460" firstSheet="4" activeTab="8" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>MINIMUM INCOME GUARANTEE PER WEEK</t>
-  </si>
-  <si>
-    <t>employed_share</t>
   </si>
   <si>
     <t>26/08/2024 (JV)</t>
@@ -567,10 +564,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,7 +691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913CAC88-DA29-B446-BA66-DD061E930F0F}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -702,115 +701,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
+      <c r="B1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>2011</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.88794052600860596</v>
+      <c r="B2">
+        <v>0.89320820569992065</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2012</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.85640430450439453</v>
+      <c r="B3">
+        <v>0.8657844066619873</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>2013</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.82676565647125244</v>
+      <c r="B4">
+        <v>0.82827186584472656</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>2014</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.82236862182617188</v>
+      <c r="B5">
+        <v>0.82824081182479858</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>2015</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.80132293701171875</v>
+      <c r="B6">
+        <v>0.80826228857040405</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.77768748998641968</v>
+      <c r="B7">
+        <v>0.77545362710952759</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.8748633861541748</v>
+      <c r="B8">
+        <v>0.88258707523345947</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.90104460716247559</v>
+      <c r="B9">
+        <v>0.91472756862640381</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>2019</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.84850233793258667</v>
+      <c r="B10">
+        <v>0.85779476165771484</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.93292993307113647</v>
+      <c r="B11">
+        <v>0.9422152042388916</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.88890367746353149</v>
+      <c r="B12">
+        <v>0.89773392677307129</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.86532920598983765</v>
+      <c r="B13">
+        <v>0.86124420166015625</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.86972618103027344</v>
+      <c r="B14">
+        <v>0.87013924121856689</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF20F67C-8199-DF49-B370-FEC449D4A65C}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -830,115 +831,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
+      <c r="B1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>2011</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.25252038240432739</v>
+      <c r="B2">
+        <v>0.26363557577133179</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2012</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.24328720569610596</v>
+      <c r="B3">
+        <v>0.24835902452468872</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>2013</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.2270265519618988</v>
+      <c r="B4">
+        <v>0.23339064419269562</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>2014</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.21970100700855255</v>
+      <c r="B5">
+        <v>0.22733981907367706</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>2015</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.2131209522485733</v>
+      <c r="B6">
+        <v>0.2194313257932663</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.2237350195646286</v>
+      <c r="B7">
+        <v>0.22610563039779663</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.23262958228588104</v>
+      <c r="B8">
+        <v>0.23774178326129913</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.25565087795257568</v>
+      <c r="B9">
+        <v>0.25726631283760071</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>2019</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.26219040155410767</v>
+      <c r="B10">
+        <v>0.26625457406044006</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.23543322086334229</v>
+      <c r="B11">
+        <v>0.23577550053596497</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.26493543386459351</v>
+      <c r="B12">
+        <v>0.272076815366745</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.27603477239608765</v>
+      <c r="B13">
+        <v>0.27906233072280884</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.28345495462417603</v>
+      <c r="B14">
+        <v>0.28961721062660217</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7395B26-1CB7-2048-9F09-0ADB9D4B09D2}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -958,115 +961,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
+      <c r="B1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>2011</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.34305822849273682</v>
+      <c r="B2">
+        <v>0.34381186962127686</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2012</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.30937826633453369</v>
+      <c r="B3">
+        <v>0.31469139456748962</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>2013</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.28846493363380432</v>
+      <c r="B4">
+        <v>0.29109084606170654</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>2014</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.28627783060073853</v>
+      <c r="B5">
+        <v>0.28953883051872253</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>2015</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.30418160557746887</v>
+      <c r="B6">
+        <v>0.30924078822135925</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.31298160552978516</v>
+      <c r="B7">
+        <v>0.31613472104072571</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.30002990365028381</v>
+      <c r="B8">
+        <v>0.30236980319023132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.32041221857070923</v>
+      <c r="B9">
+        <v>0.32246494293212891</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>2019</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.39999315142631531</v>
+      <c r="B10">
+        <v>0.40056541562080383</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.34400022029876709</v>
+      <c r="B11">
+        <v>0.34622266888618469</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.36734047532081604</v>
+      <c r="B12">
+        <v>0.36705151200294495</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.32931581139564514</v>
+      <c r="B13">
+        <v>0.33073639869689941</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.32473981380462646</v>
+      <c r="B14">
+        <v>0.32370570302009583</v>
       </c>
     </row>
   </sheetData>
@@ -1078,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61EE29D-32A6-E444-812E-2E49B8AFCE42}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1088,115 +1091,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
+      <c r="B1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>2011</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.22778747975826263</v>
+      <c r="B2">
+        <v>0.23254229128360748</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2012</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.22201201319694519</v>
+      <c r="B3">
+        <v>0.22711493074893951</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>2013</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.21300402283668518</v>
+      <c r="B4">
+        <v>0.21597671508789062</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>2014</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.2013183981180191</v>
+      <c r="B5">
+        <v>0.20407794415950775</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>2015</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.23291543126106262</v>
+      <c r="B6">
+        <v>0.23638306558132172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.20759573578834534</v>
+      <c r="B7">
+        <v>0.20774771273136139</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.2188573032617569</v>
+      <c r="B8">
+        <v>0.21844461560249329</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.24295750260353088</v>
+      <c r="B9">
+        <v>0.24652734398841858</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>2019</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.27645990252494812</v>
+      <c r="B10">
+        <v>0.28441664576530457</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.27932974696159363</v>
+      <c r="B11">
+        <v>0.27462953329086304</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.25465261936187744</v>
+      <c r="B12">
+        <v>0.25909608602523804</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.25471168756484985</v>
+      <c r="B13">
+        <v>0.25211036205291748</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.26065731048583984</v>
+      <c r="B14">
+        <v>0.26152157783508301</v>
       </c>
     </row>
   </sheetData>
@@ -1291,10 +1294,10 @@
         <v>31</v>
       </c>
       <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
         <v>39</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -2512,7 +2515,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2538,10 +2541,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2995,10 +2998,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3130,10 +3133,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3359,10 +3362,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3581,10 +3584,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02B2D7-F4EC-4D40-840B-FB6BA99B9F2B}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B27"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3594,215 +3597,111 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.49449700000000002</v>
+        <v>0.56784522533416748</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.29497800000000002</v>
+        <v>0.56760662794113159</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.30293399999999998</v>
+        <v>0.57263153791427612</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.30091099999999998</v>
+        <v>0.55809998512268066</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.29651699999999998</v>
+        <v>0.5489189624786377</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.30839499999999997</v>
+        <v>0.56331044435501099</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.31296000000000002</v>
+        <v>0.58118480443954468</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.33508500000000002</v>
+        <v>0.62366920709609985</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.36758299999999999</v>
+        <v>0.63585716485977173</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.38047399999999998</v>
+        <v>0.57922005653381348</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.32200600000000001</v>
+        <v>0.60374456644058228</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.319162</v>
+        <v>0.61135166883468628</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.31869500000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.33229500000000001</v>
+        <v>0.62731266021728516</v>
       </c>
     </row>
   </sheetData>
@@ -3812,10 +3711,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3825,215 +3724,111 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.29497800000000002</v>
+        <v>0.34945625066757202</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.30293399999999998</v>
+        <v>0.36208641529083252</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.30091099999999998</v>
+        <v>0.37758514285087585</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.29651699999999998</v>
+        <v>0.38227757811546326</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.30839499999999997</v>
+        <v>0.36777612566947937</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.31296000000000002</v>
+        <v>0.3897605836391449</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.33508500000000002</v>
+        <v>0.41918528079986572</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.36758299999999999</v>
+        <v>0.44151386618614197</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.38047399999999998</v>
+        <v>0.46234574913978577</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.32200600000000001</v>
+        <v>0.40918758511543274</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.319162</v>
+        <v>0.41562214493751526</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.31869500000000001</v>
+        <v>0.41590622067451477</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.33229500000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.33229500000000001</v>
+        <v>0.41159224510192871</v>
       </c>
     </row>
   </sheetData>
@@ -4043,10 +3838,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4056,215 +3851,111 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.62630600000000003</v>
+        <v>0.9284127950668335</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.62630600000000003</v>
+        <v>0.93212395906448364</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.61981799999999998</v>
+        <v>0.9249301552772522</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.62006399999999995</v>
+        <v>0.93235337734222412</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.62284799999999996</v>
+        <v>0.93146604299545288</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.63151900000000005</v>
+        <v>0.9305540919303894</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.62040200000000001</v>
+        <v>0.95216405391693115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.60854799999999998</v>
+        <v>0.9590415358543396</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.60442799999999997</v>
+        <v>0.96375632286071777</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.57280399999999998</v>
+        <v>0.95262330770492554</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.51707499999999995</v>
+        <v>0.95864135026931763</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.54910899999999996</v>
+        <v>0.95762217044830322</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.54368700000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.55044300000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.55044300000000002</v>
+        <v>0.96741211414337158</v>
       </c>
     </row>
   </sheetData>
